--- a/Basic Concepts.xlsx
+++ b/Basic Concepts.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Obaje\Desktop\DataAnalyticss\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Obaje\Desktop\files\Github2025\DataAnalyticsEssentials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCBE7F25-8943-4895-887B-1A6CE8AC7FAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B53EFA88-4EEB-4E6E-B395-9572E7D4A7A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{7A4E7FC7-5D5B-4F0F-8B92-A13077500DAB}"/>
+    <workbookView xWindow="1920" yWindow="4590" windowWidth="15375" windowHeight="7875" activeTab="2" xr2:uid="{7A4E7FC7-5D5B-4F0F-8B92-A13077500DAB}"/>
   </bookViews>
   <sheets>
     <sheet name="Formulas" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Addition</t>
   </si>
@@ -75,12 +75,40 @@
   </si>
   <si>
     <t>MAX</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Product_Category</t>
+  </si>
+  <si>
+    <t>Order_Quantity</t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>Revenue</t>
+  </si>
+  <si>
+    <t>Profit %</t>
+  </si>
+  <si>
+    <t>Profit $</t>
+  </si>
+  <si>
+    <t>Bikes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="7" formatCode="&quot;$&quot;#,##0.00_);\(&quot;$&quot;#,##0.00\)"/>
+    <numFmt numFmtId="165" formatCode="m/d/yy;@"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -118,9 +146,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="7" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -673,12 +719,69 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7C08D89-6E97-4D61-A1BE-0C3DD8AA6E4C}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="12.5703125" customWidth="1"/>
+    <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="4" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
+        <v>44562</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="3">
+        <v>2</v>
+      </c>
+      <c r="D2" s="6">
+        <v>3038</v>
+      </c>
+      <c r="E2" s="6">
+        <v>4837</v>
+      </c>
+      <c r="F2" s="6">
+        <v>1799</v>
+      </c>
+      <c r="G2" s="7">
+        <f>D2/E2</f>
+        <v>0.62807525325615055</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>